--- a/data/3-11.xlsx
+++ b/data/3-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eui1.sharepoint.com/sites/EUIGIFI/Shared Documents/General/Other deliverables/DFI Tracker/Data Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C89253E8-323D-584D-AC39-D6EB454284D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B31C3D8F-C63F-3241-9520-37DDAADFFCED}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{C89253E8-323D-584D-AC39-D6EB454284D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CCC1E76-EB96-7A4B-91AF-48763E1AD88F}"/>
   <bookViews>
     <workbookView xWindow="12080" yWindow="740" windowWidth="16780" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1777,13 +1777,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2036,8 +2035,8 @@
   </sheetPr>
   <dimension ref="A1:K750"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2107,10 +2106,10 @@
         <v>401</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>2023</v>
@@ -2142,10 +2141,10 @@
         <v>401</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>2023</v>
@@ -2177,10 +2176,10 @@
         <v>401</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>2023</v>
@@ -2212,10 +2211,10 @@
         <v>401</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>2023</v>
@@ -2247,10 +2246,10 @@
         <v>401</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>2023</v>
@@ -2282,10 +2281,10 @@
         <v>401</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>2023</v>
@@ -2317,10 +2316,10 @@
         <v>401</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>2023</v>
@@ -2352,10 +2351,10 @@
         <v>401</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>2023</v>
@@ -2387,10 +2386,10 @@
         <v>401</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>2023</v>
@@ -2422,10 +2421,10 @@
         <v>401</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>2023</v>
@@ -2457,10 +2456,10 @@
         <v>401</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>2023</v>
@@ -2492,10 +2491,10 @@
         <v>401</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>2023</v>
@@ -2527,10 +2526,10 @@
         <v>401</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>2023</v>
@@ -2562,10 +2561,10 @@
         <v>401</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>2023</v>
@@ -2597,10 +2596,10 @@
         <v>401</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J16" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>2023</v>
@@ -2632,10 +2631,10 @@
         <v>401</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J17" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>2023</v>
@@ -2667,10 +2666,10 @@
         <v>401</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J18" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>2023</v>
@@ -2702,10 +2701,10 @@
         <v>401</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J19" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>2023</v>
@@ -2737,10 +2736,10 @@
         <v>401</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J20" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>2023</v>
@@ -2772,10 +2771,10 @@
         <v>401</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J21" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>2023</v>
@@ -2807,10 +2806,10 @@
         <v>401</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J22" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>2023</v>
@@ -2842,10 +2841,10 @@
         <v>401</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J23" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>2023</v>
@@ -2877,10 +2876,10 @@
         <v>401</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J24" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>2023</v>
@@ -2912,10 +2911,10 @@
         <v>401</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J25" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>2023</v>
@@ -2947,10 +2946,10 @@
         <v>401</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J26" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>2023</v>
@@ -2982,10 +2981,10 @@
         <v>401</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J27" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
         <v>2023</v>
@@ -3017,10 +3016,10 @@
         <v>401</v>
       </c>
       <c r="I28" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J28" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
         <v>2023</v>
@@ -3052,10 +3051,10 @@
         <v>401</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J29" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
         <v>2023</v>
@@ -3087,10 +3086,10 @@
         <v>401</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J30" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
         <v>2023</v>
@@ -3122,10 +3121,10 @@
         <v>401</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J31" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
         <v>2023</v>
@@ -3157,10 +3156,10 @@
         <v>401</v>
       </c>
       <c r="I32" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J32" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
         <v>2023</v>
@@ -3192,10 +3191,10 @@
         <v>401</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J33" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
         <v>2023</v>
@@ -3227,10 +3226,10 @@
         <v>401</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J34" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
         <v>2023</v>
@@ -3262,10 +3261,10 @@
         <v>401</v>
       </c>
       <c r="I35" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J35" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
         <v>2023</v>
@@ -3297,10 +3296,10 @@
         <v>401</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J36" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
         <v>2023</v>
@@ -3332,10 +3331,10 @@
         <v>401</v>
       </c>
       <c r="I37" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
         <v>2023</v>
@@ -3367,10 +3366,10 @@
         <v>401</v>
       </c>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J38" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
         <v>2023</v>
@@ -3402,10 +3401,10 @@
         <v>401</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J39" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
         <v>2023</v>
@@ -3437,10 +3436,10 @@
         <v>401</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J40" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
         <v>2023</v>
@@ -3472,10 +3471,10 @@
         <v>401</v>
       </c>
       <c r="I41" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J41" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
         <v>2023</v>
@@ -3507,10 +3506,10 @@
         <v>401</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J42" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
         <v>2023</v>
@@ -3542,10 +3541,10 @@
         <v>401</v>
       </c>
       <c r="I43" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J43" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
         <v>2023</v>
@@ -3577,10 +3576,10 @@
         <v>401</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J44" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
         <v>2023</v>
@@ -3612,10 +3611,10 @@
         <v>401</v>
       </c>
       <c r="I45" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J45" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
         <v>2023</v>
@@ -3647,10 +3646,10 @@
         <v>401</v>
       </c>
       <c r="I46" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J46" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
         <v>2023</v>
@@ -3682,10 +3681,10 @@
         <v>401</v>
       </c>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J47" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="1">
         <v>2023</v>
@@ -3717,10 +3716,10 @@
         <v>401</v>
       </c>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J48" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
         <v>2023</v>
@@ -3752,10 +3751,10 @@
         <v>401</v>
       </c>
       <c r="I49" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J49" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
         <v>2023</v>
@@ -3787,10 +3786,10 @@
         <v>401</v>
       </c>
       <c r="I50" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J50" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
         <v>2023</v>
@@ -3822,10 +3821,10 @@
         <v>401</v>
       </c>
       <c r="I51" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J51" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
         <v>2023</v>
@@ -3857,10 +3856,10 @@
         <v>401</v>
       </c>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J52" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
         <v>2023</v>
@@ -3892,10 +3891,10 @@
         <v>401</v>
       </c>
       <c r="I53" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J53" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
         <v>2023</v>
@@ -3927,10 +3926,10 @@
         <v>401</v>
       </c>
       <c r="I54" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J54" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1">
         <v>2023</v>
@@ -3962,10 +3961,10 @@
         <v>401</v>
       </c>
       <c r="I55" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J55" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
         <v>2023</v>
@@ -3990,17 +3989,17 @@
       <c r="F56" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="1" t="s">
         <v>402</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>401</v>
       </c>
       <c r="I56" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J56" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
         <v>2023</v>
@@ -4032,10 +4031,10 @@
         <v>401</v>
       </c>
       <c r="I57" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J57" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
         <v>2023</v>
@@ -4067,10 +4066,10 @@
         <v>401</v>
       </c>
       <c r="I58" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J58" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
         <v>2023</v>
@@ -4102,10 +4101,10 @@
         <v>401</v>
       </c>
       <c r="I59" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J59" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1">
         <v>2023</v>
@@ -4137,10 +4136,10 @@
         <v>401</v>
       </c>
       <c r="I60" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J60" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K60" s="1">
         <v>2023</v>
@@ -4172,10 +4171,10 @@
         <v>401</v>
       </c>
       <c r="I61" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J61" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="1">
         <v>2023</v>
@@ -4207,10 +4206,10 @@
         <v>401</v>
       </c>
       <c r="I62" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J62" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="1">
         <v>2023</v>
@@ -4242,10 +4241,10 @@
         <v>401</v>
       </c>
       <c r="I63" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J63" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1">
         <v>2023</v>
@@ -4277,10 +4276,10 @@
         <v>401</v>
       </c>
       <c r="I64" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J64" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K64" s="1">
         <v>2023</v>
@@ -4312,10 +4311,10 @@
         <v>401</v>
       </c>
       <c r="I65" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J65" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
         <v>2023</v>
@@ -4347,10 +4346,10 @@
         <v>401</v>
       </c>
       <c r="I66" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J66" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1">
         <v>2023</v>
@@ -4382,10 +4381,10 @@
         <v>401</v>
       </c>
       <c r="I67" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J67" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1">
         <v>2023</v>
@@ -4417,10 +4416,10 @@
         <v>401</v>
       </c>
       <c r="I68" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J68" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1">
         <v>2023</v>
@@ -4452,10 +4451,10 @@
         <v>401</v>
       </c>
       <c r="I69" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J69" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1">
         <v>2023</v>
@@ -4487,10 +4486,10 @@
         <v>401</v>
       </c>
       <c r="I70" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J70" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
         <v>2023</v>
@@ -4522,10 +4521,10 @@
         <v>401</v>
       </c>
       <c r="I71" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J71" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
         <v>2023</v>
@@ -4557,10 +4556,10 @@
         <v>401</v>
       </c>
       <c r="I72" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J72" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
         <v>2023</v>
@@ -4592,10 +4591,10 @@
         <v>401</v>
       </c>
       <c r="I73" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J73" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1">
         <v>2023</v>
@@ -4627,10 +4626,10 @@
         <v>401</v>
       </c>
       <c r="I74" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J74" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1">
         <v>2023</v>
@@ -4662,10 +4661,10 @@
         <v>401</v>
       </c>
       <c r="I75" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J75" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1">
         <v>2023</v>
@@ -4697,10 +4696,10 @@
         <v>401</v>
       </c>
       <c r="I76" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J76" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
         <v>2023</v>
@@ -4732,10 +4731,10 @@
         <v>401</v>
       </c>
       <c r="I77" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J77" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1">
         <v>2023</v>
@@ -4767,10 +4766,10 @@
         <v>401</v>
       </c>
       <c r="I78" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J78" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K78" s="1">
         <v>2023</v>
@@ -4802,10 +4801,10 @@
         <v>401</v>
       </c>
       <c r="I79" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J79" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K79" s="1">
         <v>2023</v>
@@ -4837,10 +4836,10 @@
         <v>401</v>
       </c>
       <c r="I80" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J80" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K80" s="1">
         <v>2023</v>
@@ -4872,10 +4871,10 @@
         <v>401</v>
       </c>
       <c r="I81" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J81" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="1">
         <v>2023</v>
@@ -4907,10 +4906,10 @@
         <v>401</v>
       </c>
       <c r="I82" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J82" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K82" s="1">
         <v>2023</v>
@@ -4942,10 +4941,10 @@
         <v>401</v>
       </c>
       <c r="I83" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J83" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="1">
         <v>2023</v>
@@ -4977,10 +4976,10 @@
         <v>401</v>
       </c>
       <c r="I84" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J84" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K84" s="1">
         <v>2023</v>
@@ -5012,10 +5011,10 @@
         <v>401</v>
       </c>
       <c r="I85" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J85" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K85" s="1">
         <v>2023</v>
@@ -5047,10 +5046,10 @@
         <v>401</v>
       </c>
       <c r="I86" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J86" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K86" s="1">
         <v>2023</v>
@@ -5082,10 +5081,10 @@
         <v>401</v>
       </c>
       <c r="I87" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J87" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K87" s="1">
         <v>2023</v>
@@ -5117,10 +5116,10 @@
         <v>401</v>
       </c>
       <c r="I88" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J88" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K88" s="1">
         <v>2023</v>
@@ -5152,10 +5151,10 @@
         <v>401</v>
       </c>
       <c r="I89" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J89" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="1">
         <v>2023</v>
@@ -5187,10 +5186,10 @@
         <v>401</v>
       </c>
       <c r="I90" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J90" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K90" s="1">
         <v>2023</v>
@@ -5222,10 +5221,10 @@
         <v>401</v>
       </c>
       <c r="I91" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J91" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="1">
         <v>2023</v>
@@ -5257,10 +5256,10 @@
         <v>401</v>
       </c>
       <c r="I92" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J92" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K92" s="1">
         <v>2023</v>
@@ -5292,10 +5291,10 @@
         <v>401</v>
       </c>
       <c r="I93" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J93" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K93" s="1">
         <v>2023</v>
@@ -5327,10 +5326,10 @@
         <v>401</v>
       </c>
       <c r="I94" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J94" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="1">
         <v>2023</v>
@@ -5362,10 +5361,10 @@
         <v>401</v>
       </c>
       <c r="I95" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J95" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K95" s="1">
         <v>2023</v>
@@ -5397,10 +5396,10 @@
         <v>401</v>
       </c>
       <c r="I96" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J96" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K96" s="1">
         <v>2023</v>
@@ -5432,10 +5431,10 @@
         <v>401</v>
       </c>
       <c r="I97" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J97" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K97" s="1">
         <v>2023</v>
@@ -5467,10 +5466,10 @@
         <v>401</v>
       </c>
       <c r="I98" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J98" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K98" s="1">
         <v>2023</v>
@@ -5502,10 +5501,10 @@
         <v>401</v>
       </c>
       <c r="I99" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J99" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K99" s="1">
         <v>2023</v>
@@ -5537,10 +5536,10 @@
         <v>401</v>
       </c>
       <c r="I100" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J100" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="1">
         <v>2023</v>
@@ -5572,10 +5571,10 @@
         <v>401</v>
       </c>
       <c r="I101" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J101" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="1">
         <v>2023</v>
@@ -5607,10 +5606,10 @@
         <v>401</v>
       </c>
       <c r="I102" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J102" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="1">
         <v>2023</v>
@@ -5642,10 +5641,10 @@
         <v>401</v>
       </c>
       <c r="I103" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J103" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K103" s="1">
         <v>2023</v>
@@ -5677,10 +5676,10 @@
         <v>401</v>
       </c>
       <c r="I104" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J104" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K104" s="1">
         <v>2023</v>
@@ -5712,10 +5711,10 @@
         <v>401</v>
       </c>
       <c r="I105" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J105" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K105" s="1">
         <v>2023</v>
@@ -5747,10 +5746,10 @@
         <v>401</v>
       </c>
       <c r="I106" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J106" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K106" s="1">
         <v>2023</v>
@@ -5782,10 +5781,10 @@
         <v>401</v>
       </c>
       <c r="I107" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J107" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K107" s="1">
         <v>2023</v>
@@ -5817,10 +5816,10 @@
         <v>401</v>
       </c>
       <c r="I108" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J108" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K108" s="1">
         <v>2023</v>
@@ -5852,10 +5851,10 @@
         <v>401</v>
       </c>
       <c r="I109" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J109" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K109" s="1">
         <v>2023</v>
@@ -5887,10 +5886,10 @@
         <v>401</v>
       </c>
       <c r="I110" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J110" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K110" s="1">
         <v>2023</v>
@@ -5922,10 +5921,10 @@
         <v>401</v>
       </c>
       <c r="I111" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J111" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K111" s="1">
         <v>2023</v>
@@ -5957,10 +5956,10 @@
         <v>401</v>
       </c>
       <c r="I112" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J112" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K112" s="1">
         <v>2023</v>
@@ -5992,10 +5991,10 @@
         <v>401</v>
       </c>
       <c r="I113" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J113" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K113" s="1">
         <v>2023</v>
@@ -6027,10 +6026,10 @@
         <v>401</v>
       </c>
       <c r="I114" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J114" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K114" s="1">
         <v>2023</v>
@@ -6062,10 +6061,10 @@
         <v>401</v>
       </c>
       <c r="I115" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J115" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K115" s="1">
         <v>2023</v>
@@ -6097,10 +6096,10 @@
         <v>401</v>
       </c>
       <c r="I116" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J116" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K116" s="1">
         <v>2023</v>
@@ -6132,10 +6131,10 @@
         <v>401</v>
       </c>
       <c r="I117" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J117" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K117" s="1">
         <v>2023</v>
@@ -6167,10 +6166,10 @@
         <v>401</v>
       </c>
       <c r="I118" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J118" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K118" s="1">
         <v>2023</v>
@@ -6202,10 +6201,10 @@
         <v>401</v>
       </c>
       <c r="I119" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J119" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K119" s="1">
         <v>2023</v>
@@ -6237,10 +6236,10 @@
         <v>401</v>
       </c>
       <c r="I120" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J120" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K120" s="1">
         <v>2023</v>
@@ -6272,10 +6271,10 @@
         <v>401</v>
       </c>
       <c r="I121" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J121" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K121" s="1">
         <v>2023</v>
@@ -6307,10 +6306,10 @@
         <v>401</v>
       </c>
       <c r="I122" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J122" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K122" s="1">
         <v>2023</v>
@@ -6342,10 +6341,10 @@
         <v>401</v>
       </c>
       <c r="I123" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J123" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K123" s="1">
         <v>2023</v>
@@ -6377,10 +6376,10 @@
         <v>401</v>
       </c>
       <c r="I124" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J124" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K124" s="1">
         <v>2023</v>
@@ -6412,10 +6411,10 @@
         <v>401</v>
       </c>
       <c r="I125" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J125" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K125" s="1">
         <v>2023</v>
@@ -6447,10 +6446,10 @@
         <v>401</v>
       </c>
       <c r="I126" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J126" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K126" s="1">
         <v>2023</v>
@@ -6482,10 +6481,10 @@
         <v>401</v>
       </c>
       <c r="I127" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J127" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K127" s="1">
         <v>2023</v>
@@ -6517,10 +6516,10 @@
         <v>401</v>
       </c>
       <c r="I128" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J128" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K128" s="1">
         <v>2023</v>
@@ -6545,17 +6544,17 @@
       <c r="F129" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="G129" s="1" t="s">
         <v>402</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>401</v>
       </c>
       <c r="I129" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J129" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K129" s="1">
         <v>2023</v>
@@ -6587,10 +6586,10 @@
         <v>401</v>
       </c>
       <c r="I130" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J130" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K130" s="1">
         <v>2023</v>
@@ -6622,10 +6621,10 @@
         <v>401</v>
       </c>
       <c r="I131" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J131" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K131" s="1">
         <v>2023</v>
@@ -6657,10 +6656,10 @@
         <v>401</v>
       </c>
       <c r="I132" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J132" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K132" s="1">
         <v>2023</v>
@@ -6692,10 +6691,10 @@
         <v>401</v>
       </c>
       <c r="I133" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J133" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K133" s="1">
         <v>2023</v>
@@ -6727,10 +6726,10 @@
         <v>401</v>
       </c>
       <c r="I134" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J134" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K134" s="1">
         <v>2023</v>
@@ -6762,10 +6761,10 @@
         <v>401</v>
       </c>
       <c r="I135" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J135" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K135" s="1">
         <v>2023</v>
@@ -6797,10 +6796,10 @@
         <v>401</v>
       </c>
       <c r="I136" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J136" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K136" s="1">
         <v>2023</v>
@@ -6832,10 +6831,10 @@
         <v>401</v>
       </c>
       <c r="I137" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J137" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K137" s="1">
         <v>2023</v>
@@ -6867,10 +6866,10 @@
         <v>401</v>
       </c>
       <c r="I138" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J138" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K138" s="1">
         <v>2023</v>
@@ -6902,10 +6901,10 @@
         <v>401</v>
       </c>
       <c r="I139" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J139" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K139" s="1">
         <v>2023</v>
@@ -6937,10 +6936,10 @@
         <v>401</v>
       </c>
       <c r="I140" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J140" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K140" s="1">
         <v>2023</v>
@@ -6972,10 +6971,10 @@
         <v>401</v>
       </c>
       <c r="I141" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J141" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K141" s="1">
         <v>2023</v>
@@ -7007,10 +7006,10 @@
         <v>401</v>
       </c>
       <c r="I142" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J142" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K142" s="1">
         <v>2023</v>
@@ -7042,10 +7041,10 @@
         <v>401</v>
       </c>
       <c r="I143" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J143" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K143" s="1">
         <v>2023</v>
@@ -7077,10 +7076,10 @@
         <v>401</v>
       </c>
       <c r="I144" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J144" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K144" s="1">
         <v>2023</v>
@@ -7112,10 +7111,10 @@
         <v>401</v>
       </c>
       <c r="I145" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J145" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K145" s="1">
         <v>2023</v>
@@ -7147,10 +7146,10 @@
         <v>401</v>
       </c>
       <c r="I146" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J146" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K146" s="1">
         <v>2023</v>
@@ -7182,10 +7181,10 @@
         <v>401</v>
       </c>
       <c r="I147" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J147" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K147" s="1">
         <v>2023</v>
@@ -7217,10 +7216,10 @@
         <v>401</v>
       </c>
       <c r="I148" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J148" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K148" s="1">
         <v>2023</v>
@@ -7252,10 +7251,10 @@
         <v>401</v>
       </c>
       <c r="I149" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J149" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K149" s="1">
         <v>2023</v>
@@ -7287,10 +7286,10 @@
         <v>401</v>
       </c>
       <c r="I150" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J150" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K150" s="1">
         <v>2023</v>
@@ -7322,10 +7321,10 @@
         <v>401</v>
       </c>
       <c r="I151" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J151" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K151" s="1">
         <v>2023</v>
@@ -7357,10 +7356,10 @@
         <v>401</v>
       </c>
       <c r="I152" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J152" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K152" s="1">
         <v>2023</v>
@@ -7392,10 +7391,10 @@
         <v>401</v>
       </c>
       <c r="I153" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J153" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K153" s="1">
         <v>2023</v>
@@ -7427,10 +7426,10 @@
         <v>401</v>
       </c>
       <c r="I154" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J154" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K154" s="1">
         <v>2023</v>
@@ -7462,10 +7461,10 @@
         <v>401</v>
       </c>
       <c r="I155" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J155" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K155" s="1">
         <v>2023</v>
@@ -7497,10 +7496,10 @@
         <v>401</v>
       </c>
       <c r="I156" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J156" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K156" s="1">
         <v>2023</v>
@@ -7532,10 +7531,10 @@
         <v>401</v>
       </c>
       <c r="I157" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J157" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K157" s="1">
         <v>2023</v>
@@ -7567,10 +7566,10 @@
         <v>401</v>
       </c>
       <c r="I158" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J158" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K158" s="1">
         <v>2023</v>
@@ -7602,10 +7601,10 @@
         <v>401</v>
       </c>
       <c r="I159" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J159" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K159" s="1">
         <v>2023</v>
@@ -7637,10 +7636,10 @@
         <v>401</v>
       </c>
       <c r="I160" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J160" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K160" s="1">
         <v>2023</v>
@@ -7672,10 +7671,10 @@
         <v>401</v>
       </c>
       <c r="I161" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J161" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K161" s="1">
         <v>2023</v>
@@ -7707,10 +7706,10 @@
         <v>401</v>
       </c>
       <c r="I162" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J162" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K162" s="1">
         <v>2023</v>
@@ -7742,10 +7741,10 @@
         <v>401</v>
       </c>
       <c r="I163" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J163" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K163" s="1">
         <v>2023</v>
@@ -7777,10 +7776,10 @@
         <v>401</v>
       </c>
       <c r="I164" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J164" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K164" s="1">
         <v>2023</v>
@@ -7812,10 +7811,10 @@
         <v>401</v>
       </c>
       <c r="I165" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J165" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K165" s="1">
         <v>2023</v>
@@ -7847,10 +7846,10 @@
         <v>401</v>
       </c>
       <c r="I166" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J166" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K166" s="1">
         <v>2023</v>
@@ -7882,10 +7881,10 @@
         <v>401</v>
       </c>
       <c r="I167" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J167" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K167" s="1">
         <v>2023</v>
@@ -7917,10 +7916,10 @@
         <v>401</v>
       </c>
       <c r="I168" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J168" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K168" s="1">
         <v>2023</v>
@@ -7952,10 +7951,10 @@
         <v>401</v>
       </c>
       <c r="I169" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J169" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K169" s="1">
         <v>2023</v>
@@ -7987,10 +7986,10 @@
         <v>401</v>
       </c>
       <c r="I170" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J170" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K170" s="1">
         <v>2023</v>
@@ -8022,10 +8021,10 @@
         <v>401</v>
       </c>
       <c r="I171" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J171" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K171" s="1">
         <v>2023</v>
@@ -8057,10 +8056,10 @@
         <v>401</v>
       </c>
       <c r="I172" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J172" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K172" s="1">
         <v>2023</v>
@@ -8092,10 +8091,10 @@
         <v>401</v>
       </c>
       <c r="I173" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J173" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K173" s="1">
         <v>2023</v>
@@ -8127,10 +8126,10 @@
         <v>401</v>
       </c>
       <c r="I174" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J174" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K174" s="1">
         <v>2023</v>
@@ -8162,10 +8161,10 @@
         <v>401</v>
       </c>
       <c r="I175" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J175" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K175" s="1">
         <v>2023</v>
@@ -8197,10 +8196,10 @@
         <v>401</v>
       </c>
       <c r="I176" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J176" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K176" s="1">
         <v>2023</v>
@@ -8232,10 +8231,10 @@
         <v>401</v>
       </c>
       <c r="I177" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J177" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K177" s="1">
         <v>2023</v>
@@ -8267,10 +8266,10 @@
         <v>401</v>
       </c>
       <c r="I178" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J178" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K178" s="1">
         <v>2023</v>
@@ -8302,10 +8301,10 @@
         <v>401</v>
       </c>
       <c r="I179" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J179" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K179" s="1">
         <v>2023</v>
@@ -8337,10 +8336,10 @@
         <v>401</v>
       </c>
       <c r="I180" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J180" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K180" s="1">
         <v>2023</v>
@@ -8372,10 +8371,10 @@
         <v>401</v>
       </c>
       <c r="I181" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J181" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K181" s="1">
         <v>2023</v>
@@ -8407,10 +8406,10 @@
         <v>401</v>
       </c>
       <c r="I182" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J182" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K182" s="1">
         <v>2023</v>
@@ -8442,10 +8441,10 @@
         <v>401</v>
       </c>
       <c r="I183" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J183" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K183" s="1">
         <v>2023</v>
@@ -8477,10 +8476,10 @@
         <v>401</v>
       </c>
       <c r="I184" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J184" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K184" s="1">
         <v>2023</v>
@@ -8512,10 +8511,10 @@
         <v>401</v>
       </c>
       <c r="I185" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J185" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K185" s="1">
         <v>2023</v>
@@ -8547,10 +8546,10 @@
         <v>401</v>
       </c>
       <c r="I186" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J186" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K186" s="1">
         <v>2023</v>
@@ -8582,10 +8581,10 @@
         <v>401</v>
       </c>
       <c r="I187" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J187" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K187" s="1">
         <v>2023</v>
@@ -8617,10 +8616,10 @@
         <v>401</v>
       </c>
       <c r="I188" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J188" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K188" s="1">
         <v>2023</v>
@@ -8652,10 +8651,10 @@
         <v>401</v>
       </c>
       <c r="I189" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J189" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K189" s="1">
         <v>2023</v>
@@ -8687,10 +8686,10 @@
         <v>401</v>
       </c>
       <c r="I190" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J190" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K190" s="1">
         <v>2023</v>
@@ -8722,10 +8721,10 @@
         <v>401</v>
       </c>
       <c r="I191" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J191" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K191" s="1">
         <v>2023</v>
@@ -8757,10 +8756,10 @@
         <v>401</v>
       </c>
       <c r="I192" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J192" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K192" s="1">
         <v>2023</v>
@@ -8792,10 +8791,10 @@
         <v>401</v>
       </c>
       <c r="I193" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J193" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K193" s="1">
         <v>2023</v>
@@ -8827,10 +8826,10 @@
         <v>401</v>
       </c>
       <c r="I194" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J194" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K194" s="1">
         <v>2023</v>
@@ -8862,10 +8861,10 @@
         <v>401</v>
       </c>
       <c r="I195" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J195" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K195" s="1">
         <v>2023</v>
@@ -14982,6 +14981,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0b45af84-26f8-4e58-b6b2-ac91f42d435d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1d2a751e-c940-49fb-b129-5edb270068eb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006E3DD8F6A53105498A3DA392E71453A7" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d601f522e3e51b19c3f9226f134eddba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1d2a751e-c940-49fb-b129-5edb270068eb" xmlns:ns3="0b45af84-26f8-4e58-b6b2-ac91f42d435d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b945da9333134c263560e394374875cf" ns2:_="" ns3:_="">
     <xsd:import namespace="1d2a751e-c940-49fb-b129-5edb270068eb"/>
@@ -15216,27 +15235,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0b45af84-26f8-4e58-b6b2-ac91f42d435d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1d2a751e-c940-49fb-b129-5edb270068eb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C503EEC6-05D0-4EEA-AAA4-AECCDB634306}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD8D6A0F-1E10-4DA2-BF80-E3FB7A04BD94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1d2a751e-c940-49fb-b129-5edb270068eb"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0b45af84-26f8-4e58-b6b2-ac91f42d435d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66DD72AA-EF3B-4CEC-9273-C3CC21E58385}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15253,29 +15277,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD8D6A0F-1E10-4DA2-BF80-E3FB7A04BD94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1d2a751e-c940-49fb-b129-5edb270068eb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0b45af84-26f8-4e58-b6b2-ac91f42d435d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C503EEC6-05D0-4EEA-AAA4-AECCDB634306}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>